--- a/Halforbit.ObjectTools.Benchmarks/benchmark-comparison.xlsx
+++ b/Halforbit.ObjectTools.Benchmarks/benchmark-comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Halforbit\Halforbit.ObjectTools\Halforbit.ObjectTools.Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7EFDA-D89B-4A51-864A-E9A8882573C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D324C02-553C-4DF3-A65D-3FE21746B4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15796" activeTab="2" xr2:uid="{9A76F76D-673C-497C-9BC9-E224BE56D453}"/>
+    <workbookView xWindow="31488" yWindow="768" windowWidth="23040" windowHeight="12060" activeTab="2" xr2:uid="{9A76F76D-673C-497C-9BC9-E224BE56D453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,36 +613,36 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.06640625" style="2"/>
+    <col min="20" max="20" width="9.109375" style="2"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="U5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="U13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="U15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="U16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="U17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="P18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>550.29999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="U20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="U21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="U22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="U23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="U24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="U25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="U26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="U27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="U28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="U29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <f>AVERAGE(F3:F29)</f>
         <v>-9.1063471047134581E-2</v>
@@ -1940,36 +1940,36 @@
       <selection activeCell="C34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="U5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="T10" s="14"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="U13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="U15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="U16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="U17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="P18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>10</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="U20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="U21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="U22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="U23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="U24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="U25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>11</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="U26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="U27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="U28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="U29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <f>AVERAGE(F3:F29)</f>
         <v>-2.4103679176689454E-2</v>
@@ -3313,45 +3313,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3059DA-45E7-4E12-B718-257F24A3D9BA}">
   <dimension ref="B2:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="11.5546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
@@ -3429,7 +3429,13 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="2">
+        <v>4.298</v>
+      </c>
+      <c r="P6" s="16">
+        <f>O6*1000</f>
+        <v>4298</v>
+      </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
@@ -3437,7 +3443,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -3467,7 +3473,13 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="2">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" ref="P7:P14" si="3">O7*1000</f>
+        <v>3158</v>
+      </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
@@ -3475,7 +3487,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3505,7 +3517,13 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="2">
+        <v>5.5709999999999997</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="3"/>
+        <v>5571</v>
+      </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
@@ -3513,7 +3531,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3561,13 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="P9" s="16"/>
+      <c r="O9" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="3"/>
+        <v>4170</v>
+      </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
@@ -3551,7 +3575,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
@@ -3581,7 +3605,13 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="2">
+        <v>3.1829999999999998</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>3183</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
@@ -3589,7 +3619,7 @@
       <c r="U10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
@@ -3619,7 +3649,13 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="P11" s="16"/>
+      <c r="O11" s="2">
+        <v>7.0289999999999999</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="3"/>
+        <v>7029</v>
+      </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
@@ -3627,7 +3663,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
@@ -3657,7 +3693,13 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="P12" s="16"/>
+      <c r="O12" s="2">
+        <v>1.341</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="3"/>
+        <v>1341</v>
+      </c>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
@@ -3665,7 +3707,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -3695,14 +3737,20 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="P13" s="16"/>
+      <c r="O13" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" si="3"/>
+        <v>1075</v>
+      </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="14"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
@@ -3732,7 +3780,13 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="P14" s="16"/>
+      <c r="O14" s="2">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="P14" s="16">
+        <f t="shared" si="3"/>
+        <v>4062.9999999999995</v>
+      </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -3740,7 +3794,7 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F15" s="6">
         <f>AVERAGE(F6:F14)</f>
         <v>-0.11593509913978808</v>
@@ -3889,17 +3943,17 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +3970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3934,7 +3988,7 @@
         <v>-0.22047256383045147</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3952,7 +4006,7 @@
         <v>-8.3914260776912594E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +4024,7 @@
         <v>-0.15815104689276874</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +4042,7 @@
         <v>-0.16122002265701521</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4060,7 @@
         <v>-7.4477464158313772E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4078,7 @@
         <v>-0.21920324719631887</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +4096,7 @@
         <v>-0.14443458844400942</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4060,7 +4114,7 @@
         <v>-0.37726884673917072</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4132,7 @@
         <v>-0.42365875023375288</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="F12" s="6">
         <f>AVERAGE(F3:F11)</f>

--- a/Halforbit.ObjectTools.Benchmarks/benchmark-comparison.xlsx
+++ b/Halforbit.ObjectTools.Benchmarks/benchmark-comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Halforbit\Halforbit.ObjectTools\Halforbit.ObjectTools.Benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722EE522-4DC6-4051-BD6C-8F6BB2FAF0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF929AB-C28A-4BAF-899E-495DBF5229E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15796" activeTab="2" xr2:uid="{9A76F76D-673C-497C-9BC9-E224BE56D453}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{9A76F76D-673C-497C-9BC9-E224BE56D453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,36 +613,36 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.06640625" style="2"/>
+    <col min="20" max="20" width="9.109375" style="2"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -761,7 +761,7 @@
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="U5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="U13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="U15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="U16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="U17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="P18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>550.29999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="U20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="U21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="U22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="U23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="U24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="U25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="U26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="U27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="U28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="U29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <f>AVERAGE(F3:F29)</f>
         <v>-9.1063471047134581E-2</v>
@@ -1940,36 +1940,36 @@
       <selection activeCell="C34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="S2" s="15"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="U3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="U4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="U5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="T10" s="14"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="U13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="U15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="U16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="U17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>10</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="P18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>10</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="U20" s="3"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>11</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="U21" s="3"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="U22" s="3"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="U23" s="3"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>11</v>
       </c>
@@ -2968,7 +2968,7 @@
       <c r="U24" s="3"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="U25" s="3"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>11</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="U26" s="3"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>11</v>
       </c>
@@ -3094,7 +3094,7 @@
       <c r="U27" s="3"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>11</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="U28" s="3"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="U29" s="3"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F30" s="6">
         <f>AVERAGE(F3:F29)</f>
         <v>-2.4103679176689454E-2</v>
@@ -3314,44 +3314,44 @@
   <dimension ref="B2:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.9296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.06640625" style="2"/>
-    <col min="16" max="16" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="2"/>
+    <col min="16" max="16" width="9.21875" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="2"/>
-    <col min="25" max="25" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.06640625" style="2"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D6" s="18">
         <f t="shared" ref="D6:D14" si="0">AVERAGE(H6:J6)</f>
-        <v>4116</v>
+        <v>4595</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" ref="E6:E14" si="1">AVERAGE(L6:N6)</f>
@@ -3416,10 +3416,10 @@
       </c>
       <c r="F6" s="14">
         <f>(E6-D6)/((E6+D6)/2)</f>
-        <v>-0.18616385606161201</v>
+        <v>-0.29463171036204744</v>
       </c>
       <c r="H6" s="4">
-        <v>4116</v>
+        <v>4595</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3437,7 +3437,7 @@
       <c r="U6" s="3"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>2874</v>
+        <v>3454</v>
       </c>
       <c r="E7" s="18">
         <f t="shared" si="1"/>
@@ -3454,10 +3454,10 @@
       </c>
       <c r="F7" s="14">
         <f t="shared" ref="F7:F14" si="2">(E7-D7)/((E7+D7)/2)</f>
-        <v>-0.11183775442721731</v>
+        <v>-0.29364499634769908</v>
       </c>
       <c r="H7" s="4">
-        <v>2874</v>
+        <v>3454</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3475,7 +3475,7 @@
       <c r="U7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D8" s="18">
         <f t="shared" si="0"/>
-        <v>4785</v>
+        <v>5509</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" si="1"/>
@@ -3492,10 +3492,10 @@
       </c>
       <c r="F8" s="14">
         <f t="shared" si="2"/>
-        <v>-8.9405600130997215E-2</v>
+        <v>-0.22934898072740148</v>
       </c>
       <c r="H8" s="4">
-        <v>4785</v>
+        <v>5509</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3513,7 +3513,7 @@
       <c r="U8" s="3"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D9" s="18">
         <f t="shared" si="0"/>
-        <v>3414</v>
+        <v>3975</v>
       </c>
       <c r="E9" s="18">
         <f t="shared" si="1"/>
@@ -3530,10 +3530,10 @@
       </c>
       <c r="F9" s="14">
         <f t="shared" si="2"/>
-        <v>3.6547036035377532E-3</v>
+        <v>-0.14821320002702154</v>
       </c>
       <c r="H9" s="4">
-        <v>3414</v>
+        <v>3975</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3551,7 +3551,7 @@
       <c r="U9" s="3"/>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D10" s="18">
         <f t="shared" si="0"/>
-        <v>2475</v>
+        <v>2918</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="1"/>
@@ -3568,10 +3568,10 @@
       </c>
       <c r="F10" s="14">
         <f t="shared" si="2"/>
-        <v>7.67382216926873E-4</v>
+        <v>-0.16352481046914677</v>
       </c>
       <c r="H10" s="4">
-        <v>2475</v>
+        <v>2918</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3589,7 +3589,7 @@
       <c r="U10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D11" s="18">
         <f t="shared" si="0"/>
-        <v>5655</v>
+        <v>6620</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="1"/>
@@ -3606,10 +3606,10 @@
       </c>
       <c r="F11" s="14">
         <f t="shared" si="2"/>
-        <v>-8.5777458110232341E-3</v>
+        <v>-0.16575200176662552</v>
       </c>
       <c r="H11" s="4">
-        <v>5655</v>
+        <v>6620</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3627,7 +3627,7 @@
       <c r="U11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="D12" s="18">
         <f t="shared" si="0"/>
-        <v>1376</v>
+        <v>1622</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" si="1"/>
@@ -3644,10 +3644,10 @@
       </c>
       <c r="F12" s="14">
         <f t="shared" si="2"/>
-        <v>-0.26772691689670808</v>
+        <v>-0.4271445138603121</v>
       </c>
       <c r="H12" s="4">
-        <v>1376</v>
+        <v>1622</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3665,7 +3665,7 @@
       <c r="U12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>1163</v>
+        <v>1337</v>
       </c>
       <c r="E13" s="18">
         <f t="shared" si="1"/>
@@ -3682,10 +3682,10 @@
       </c>
       <c r="F13" s="14">
         <f t="shared" si="2"/>
-        <v>-0.25223916727184703</v>
+        <v>-0.38803304308997544</v>
       </c>
       <c r="H13" s="5">
-        <v>1163</v>
+        <v>1337</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
@@ -3702,7 +3702,7 @@
       <c r="T13" s="14"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D14" s="18">
         <f t="shared" si="0"/>
-        <v>3675</v>
+        <v>4120</v>
       </c>
       <c r="E14" s="18">
         <f t="shared" si="1"/>
@@ -3719,10 +3719,10 @@
       </c>
       <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>-0.13188693747915242</v>
+        <v>-0.24513984442052772</v>
       </c>
       <c r="H14" s="4">
-        <v>3675</v>
+        <v>4120</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3740,10 +3740,10 @@
       <c r="U14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="F15" s="6">
         <f>AVERAGE(F6:F14)</f>
-        <v>-0.11593509913978808</v>
+        <v>-0.26171478900786194</v>
       </c>
     </row>
   </sheetData>
@@ -3889,17 +3889,17 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>-0.22047256383045147</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>-8.3914260776912594E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>-0.15815104689276874</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>-0.16122002265701521</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-7.4477464158313772E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>-0.21920324719631887</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>-0.14443458844400942</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>-0.37726884673917072</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>-0.42365875023375288</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="F12" s="6">
         <f>AVERAGE(F3:F11)</f>
